--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JacobRozsa\Documents\UiPath\ReFrameWork-master\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JacobRozsa\Documents\UiPath\Calculate Hash\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8C9983-C3F1-4B33-A25A-6B64F7907E1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CE7E9F-5472-478D-8AF7-3920498277E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>Name</t>
   </si>
@@ -109,15 +109,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>sha1</t>
-  </si>
-  <si>
-    <t>http://www.sha1-online.com/</t>
-  </si>
-  <si>
-    <t>sys1</t>
-  </si>
-  <si>
     <t>sys1Credentials</t>
   </si>
   <si>
@@ -128,9 +119,6 @@
   </si>
   <si>
     <t>workItems</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/</t>
   </si>
 </sst>
 </file>
@@ -512,7 +500,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -559,10 +547,10 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -581,30 +569,18 @@
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="B8" s="3"/>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1594,12 +1570,8 @@
     <row r="997" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{70F55509-B032-4FDB-98ED-7CF04E634DE9}"/>
-    <hyperlink ref="B8" r:id="rId2" xr:uid="{F499FA07-10D1-46C9-BB8A-9C771A4DFD58}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2768,18 +2740,18 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
